--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234</v>
+        <v>0.417</v>
       </c>
       <c r="D4" t="n">
-        <v>290</v>
+        <v>1163.64</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.178</v>
+        <v>0.482</v>
       </c>
       <c r="D5" t="n">
-        <v>535.71</v>
+        <v>2090.91</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201</v>
+        <v>0.226</v>
       </c>
       <c r="D6" t="n">
-        <v>252.63</v>
+        <v>927.27</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.340047811972909</v>
+        <v>1.333198404288851</v>
       </c>
       <c r="C4" t="n">
-        <v>2.061773904482834</v>
+        <v>2.069780909107067</v>
       </c>
       <c r="D4" t="n">
-        <v>53.86</v>
+        <v>55.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1411649057396625</v>
+        <v>0.2593153506000007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1701932549075933</v>
+        <v>0.2829117394876637</v>
       </c>
       <c r="G4" t="n">
-        <v>20.56</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.61391321568304</v>
+        <v>10.88134070945116</v>
       </c>
       <c r="C6" t="n">
-        <v>9.011406604889267</v>
+        <v>8.011304333964825</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.1</v>
+        <v>-26.38</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6631851550048976</v>
+        <v>0.7954031252248304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.515885317926923</v>
+        <v>0.7957464619778717</v>
       </c>
       <c r="G6" t="n">
-        <v>-22.21</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.033</v>
+        <v>0.418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.417</v>
+        <v>0.372</v>
       </c>
       <c r="D4" t="n">
-        <v>1163.64</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.022</v>
+        <v>0.467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.482</v>
+        <v>0.367</v>
       </c>
       <c r="D5" t="n">
-        <v>2090.91</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.022</v>
+        <v>0.388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226</v>
+        <v>0.292</v>
       </c>
       <c r="D6" t="n">
-        <v>927.27</v>
+        <v>-24.74</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.333198404288851</v>
+        <v>1.482691000332125</v>
       </c>
       <c r="C4" t="n">
-        <v>2.069780909107067</v>
+        <v>2.198793563060462</v>
       </c>
       <c r="D4" t="n">
-        <v>55.25</v>
+        <v>48.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2593153506000007</v>
+        <v>0.3228647481173535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2829117394876637</v>
+        <v>0.2775540368803416</v>
       </c>
       <c r="G4" t="n">
-        <v>9.1</v>
+        <v>-14.03</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.22</v>
+        <v>-6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.88134070945116</v>
+        <v>10.73147645958162</v>
       </c>
       <c r="C6" t="n">
-        <v>8.011304333964825</v>
+        <v>8.796340294575169</v>
       </c>
       <c r="D6" t="n">
-        <v>-26.38</v>
+        <v>-18.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7954031252248304</v>
+        <v>1.162460505486094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7957464619778717</v>
+        <v>0.6657172061251014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>-42.73</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
